--- a/DataConfig/Excel/tweet.xlsx
+++ b/DataConfig/Excel/tweet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16785" windowHeight="11715"/>
+    <workbookView windowWidth="16785" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="TWEET" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>required</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>tweet_id</t>
@@ -113,6 +116,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -120,18 +131,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,14 +186,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -233,9 +251,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,21 +264,6 @@
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -364,18 +367,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -400,181 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,21 +654,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -733,6 +721,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,214 +867,214 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1098,7 +1101,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1113,16 +1116,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="43" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1175,9 +1178,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 着色 4 2" xfId="10"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1528,7 +1531,7 @@
   <dimension ref="A1:BN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1632,44 +1635,44 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:6">
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:6">
@@ -1680,13 +1683,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:6">
@@ -1697,13 +1700,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:6">
@@ -1714,13 +1717,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Excel/tweet.xlsx
+++ b/DataConfig/Excel/tweet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16785" windowHeight="11745"/>
+    <workbookView windowWidth="18015" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="TWEET" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>required</t>
   </si>
@@ -64,19 +64,13 @@
     <t>是否隐私</t>
   </si>
   <si>
-    <t>deepblue</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>有时我沉默，不是不快乐，只是想把心净空。有时候你需要退开一点，清醒一下，然后提醒自己，我是谁，要去哪里。</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>abel</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>alva</t>
   </si>
 </sst>
 </file>
@@ -84,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -116,54 +110,120 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +237,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,59 +252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,26 +267,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -294,44 +307,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="62"/>
@@ -339,18 +314,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -367,25 +361,241 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,253 +607,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,6 +648,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,8 +699,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,6 +746,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -710,62 +767,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,6 +814,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -843,40 +855,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,214 +879,214 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1101,34 +1095,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,9 +1172,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="9"/>
+    <cellStyle name="40% - 着色 4 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1528,13 +1522,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BN7"/>
+  <dimension ref="A1:BN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="17.4416666666667" style="1" customWidth="1"/>
@@ -1543,7 +1537,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:66">
+    <row r="1" spans="1:66">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1621,7 +1615,7 @@
       <c r="BM1" s="2"/>
       <c r="BN1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="2:6">
+    <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:6">
+    <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1675,55 +1669,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:6">
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
+    <row r="5" spans="2:6">
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="2:6">
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:6">
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Excel/tweet.xlsx
+++ b/DataConfig/Excel/tweet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>required</t>
   </si>
@@ -46,6 +46,9 @@
     <t>is_secret</t>
   </si>
   <si>
+    <t>order</t>
+  </si>
+  <si>
     <t>说说表</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>是否隐私</t>
+  </si>
+  <si>
+    <t>显示控制</t>
   </si>
   <si>
     <t>0</t>
@@ -78,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -117,15 +123,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -133,32 +137,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +180,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -177,9 +233,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,42 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -237,44 +273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -294,57 +302,55 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -361,37 +367,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +547,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,13 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,205 +619,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +654,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -666,17 +696,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color indexed="23"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color indexed="23"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color indexed="23"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,8 +729,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,32 +744,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color indexed="23"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color indexed="23"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,19 +788,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,21 +813,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -808,15 +823,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,16 +867,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,214 +885,214 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1095,13 +1101,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1110,19 +1116,19 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,9 +1178,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 着色 4 2" xfId="10"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1554,7 +1560,9 @@
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -1615,7 +1623,7 @@
       <c r="BM1" s="2"/>
       <c r="BN1" s="2"/>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1631,8 +1639,11 @@
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1648,41 +1659,50 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:6">
+    <row r="4" ht="75" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/DataConfig/Excel/tweet.xlsx
+++ b/DataConfig/Excel/tweet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>required</t>
   </si>
@@ -43,6 +43,9 @@
     <t>pic_array</t>
   </si>
   <si>
+    <t>location</t>
+  </si>
+  <si>
     <t>is_secret</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>图片</t>
   </si>
   <si>
+    <t>位置</t>
+  </si>
+  <si>
     <t>是否隐私</t>
   </si>
   <si>
@@ -77,6 +83,18 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>卢浮宫</t>
+  </si>
+  <si>
+    <t>2有时我沉默，不是不快乐，只是想把心净空。有时候你需要退开一点，清醒一下，然后提醒自己，我是谁，要去哪里。</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>巴黎</t>
   </si>
 </sst>
 </file>
@@ -84,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -117,6 +135,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -124,110 +149,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,20 +208,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -265,17 +222,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -301,56 +364,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -367,19 +385,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,37 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,37 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,85 +613,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,18 +637,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -589,55 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,15 +690,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -696,6 +705,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -707,6 +758,17 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,43 +791,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,6 +808,47 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,288 +879,238 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1101,34 +1119,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="43" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,9 +1196,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="9"/>
+    <cellStyle name="40% - 着色 4 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1528,22 +1546,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BN5"/>
+  <dimension ref="A1:BO6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="17.4416666666667" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.1083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="14.1083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:67">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1563,19 +1581,21 @@
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="3"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="9"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="10"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
-      <c r="T1" s="3"/>
+      <c r="T1" s="9"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -1610,10 +1630,10 @@
       <c r="AZ1" s="3"/>
       <c r="BA1" s="3"/>
       <c r="BB1" s="3"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="12"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="11"/>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="2"/>
+      <c r="BF1" s="12"/>
       <c r="BG1" s="2"/>
       <c r="BH1" s="2"/>
       <c r="BI1" s="2"/>
@@ -1622,8 +1642,9 @@
       <c r="BL1" s="2"/>
       <c r="BM1" s="2"/>
       <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1637,13 +1658,16 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1659,51 +1683,83 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:7">
+    <row r="4" ht="75" customHeight="1" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>18</v>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
